--- a/Timetables/Timetable Rishad.xlsx
+++ b/Timetables/Timetable Rishad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Übung Exception Handling - Howlader\Biodex-Data-Management-System\Timetables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Biodex-Data-Management-System\Timetables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4EF5D19-D4F2-4952-A686-2752407E6057}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3752D4-A9EC-4F33-9140-9159DFB60B23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="9420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-2670" yWindow="2340" windowWidth="21600" windowHeight="11775" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,18 +25,56 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="1">
-  <si>
-    <t>hahaha</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>14:00-16:00</t>
+  </si>
+  <si>
+    <t>learn how to draw an ER-Diagramm</t>
+  </si>
+  <si>
+    <t>18:00-22:00</t>
+  </si>
+  <si>
+    <t>first version ER-Diagramm and discussion with teammate</t>
+  </si>
+  <si>
+    <t>18:00-20:30</t>
+  </si>
+  <si>
+    <t>Discussion about progress last week</t>
+  </si>
+  <si>
+    <t>16:00-19:00</t>
+  </si>
+  <si>
+    <t>Creating the ER-Diagramm with specifications</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -63,8 +101,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -345,23 +399,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="2" max="2" width="21.7109375" customWidth="1"/>
+    <col min="3" max="3" width="52.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
+        <v>43925</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
+        <v>43926</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
+        <v>43927</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>43931</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>